--- a/output/rtables/taxa_LRT_mvabund.xlsx
+++ b/output/rtables/taxa_LRT_mvabund.xlsx
@@ -410,7 +410,7 @@
         <v>32.01057510789175</v>
       </c>
       <c r="C4">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>31.06615551798603</v>
       </c>
       <c r="C5">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6">
@@ -462,7 +462,7 @@
         <v>18.26343304903097</v>
       </c>
       <c r="C8">
-        <v>0.162</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>17.59748739905365</v>
       </c>
       <c r="C9">
-        <v>0.172</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>16.46014835207447</v>
       </c>
       <c r="C10">
-        <v>0.172</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.98349297932813</v>
       </c>
       <c r="C11">
-        <v>0.218</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>12.72025911621819</v>
       </c>
       <c r="C12">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>11.1728783996483</v>
       </c>
       <c r="C13">
-        <v>0.253</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="14">
@@ -540,33 +540,33 @@
         <v>10.98596288668127</v>
       </c>
       <c r="C14">
-        <v>0.253</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lutjanus monostigma</t>
+          <t>Lutjanus kasmira</t>
         </is>
       </c>
       <c r="B15">
-        <v>10.13959798911858</v>
+        <v>9.128779551830569</v>
       </c>
       <c r="C15">
-        <v>0.431</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lutjanus kasmira</t>
+          <t>Lutjanus monostigma</t>
         </is>
       </c>
       <c r="B16">
-        <v>9.128779551830569</v>
+        <v>10.13959798911858</v>
       </c>
       <c r="C16">
-        <v>0.443</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>9.115237501252423</v>
       </c>
       <c r="C17">
-        <v>0.532</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>7.317175761958353</v>
       </c>
       <c r="C18">
-        <v>0.621</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>6.59151373200875</v>
       </c>
       <c r="C19">
-        <v>0.621</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>6.754851476280567</v>
       </c>
       <c r="C20">
-        <v>0.621</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>8.275421794866944</v>
       </c>
       <c r="C21">
-        <v>0.621</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>8.788738309345074</v>
       </c>
       <c r="C22">
-        <v>0.621</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>9.115237501252199</v>
       </c>
       <c r="C23">
-        <v>0.621</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>8.459079368441259</v>
       </c>
       <c r="C24">
-        <v>0.621</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.82119135405906</v>
       </c>
       <c r="C25">
-        <v>0.621</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>4.698349545551757</v>
       </c>
       <c r="C26">
-        <v>0.789</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>4.488640735326598</v>
       </c>
       <c r="C27">
-        <v>0.841</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>4.484331974572527</v>
       </c>
       <c r="C28">
-        <v>0.907</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="29">
